--- a/TH1MKT.xlsx
+++ b/TH1MKT.xlsx
@@ -11,129 +11,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t/>
   </si>
   <si>
-    <t>20139576</t>
-  </si>
-  <si>
-    <t>PC CRMY CPUCCINO 210</t>
+    <t>10002350</t>
+  </si>
+  <si>
+    <t>ABC KCP MANIS TGG275</t>
   </si>
   <si>
     <t>TH1MKT</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20029222</t>
+  </si>
+  <si>
+    <t>PRONAS CORNED BEEF50</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>10013205</t>
+  </si>
+  <si>
+    <t>SUNLIGHT J/NIPIS.750</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>20031238</t>
+  </si>
+  <si>
+    <t>WHISKAS JR MCKRL 80</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20031233</t>
+  </si>
+  <si>
+    <t>WHISKAS CF MAC&amp;SAL80</t>
+  </si>
+  <si>
+    <t>10037405</t>
+  </si>
+  <si>
+    <t>C/LANG KAYU PUTIH 30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>RT,(E-6B)</t>
+  </si>
+  <si>
+    <t>20134103</t>
+  </si>
+  <si>
+    <t>ATTACK GEL S.CNTA515</t>
   </si>
   <si>
     <t>RT,(E-1B)</t>
   </si>
   <si>
-    <t>20139577</t>
-  </si>
-  <si>
-    <t>PC AREN LATTE 210ML</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20052296</t>
-  </si>
-  <si>
-    <t>IDM GULA PRM KNG 1KG</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>PT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20064412</t>
-  </si>
-  <si>
-    <t>ABC SAMBAL ASLI 270</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20137054</t>
-  </si>
-  <si>
-    <t>CHTATO LITE ASLI 110</t>
-  </si>
-  <si>
-    <t>RT,(E-14H)</t>
-  </si>
-  <si>
-    <t>20047037</t>
-  </si>
-  <si>
-    <t>IDM KACANG BALI 150G</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20054969</t>
-  </si>
-  <si>
-    <t>ANTANGIN GNGR/M 5X15</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20132698</t>
-  </si>
-  <si>
-    <t>CLEAR SHP AK&amp;RNTK160</t>
-  </si>
-  <si>
-    <t>PT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20091441</t>
-  </si>
-  <si>
-    <t>CLEAR SHP KOMPLIT160</t>
-  </si>
-  <si>
-    <t>20091440</t>
-  </si>
-  <si>
-    <t>CLEAR SHP MENTHOL160</t>
-  </si>
-  <si>
-    <t>20137510</t>
-  </si>
-  <si>
-    <t>C/LANG KY PTH ROL 15</t>
-  </si>
-  <si>
-    <t>20053058</t>
-  </si>
-  <si>
-    <t>ATTACK JAZ1 P/SGR800</t>
+    <t>20032250</t>
+  </si>
+  <si>
+    <t>KISPRAY VIOLET PC280</t>
   </si>
   <si>
     <t>RT</t>
-  </si>
-  <si>
-    <t>20093188</t>
-  </si>
-  <si>
-    <t>RINSO MLTO GLD LQ510</t>
-  </si>
-  <si>
-    <t>PT</t>
   </si>
 </sst>
 </file>
@@ -526,14 +490,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -627,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -647,30 +611,30 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -687,10 +651,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
@@ -707,113 +671,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TH1MKT.xlsx
+++ b/TH1MKT.xlsx
@@ -11,93 +11,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t/>
   </si>
   <si>
-    <t>10002350</t>
-  </si>
-  <si>
-    <t>ABC KCP MANIS TGG275</t>
+    <t>20087713</t>
+  </si>
+  <si>
+    <t>IDM NDL AYM PDS 90G</t>
   </si>
   <si>
     <t>TH1MKT</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20113338</t>
+  </si>
+  <si>
+    <t>EMINA CHSE MILD 160G</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20029222</t>
-  </si>
-  <si>
-    <t>PRONAS CORNED BEEF50</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>10013205</t>
-  </si>
-  <si>
-    <t>SUNLIGHT J/NIPIS.750</t>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20135049</t>
+  </si>
+  <si>
+    <t>EMINA CHS SLC CD 10S</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>20138466</t>
+  </si>
+  <si>
+    <t>NABATI AHH STRW 30G</t>
+  </si>
+  <si>
+    <t>20140016</t>
+  </si>
+  <si>
+    <t>M&amp;M'S CHO PEANUT 37G</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20113135</t>
+  </si>
+  <si>
+    <t>AMUNIZER BTL 140ML</t>
+  </si>
+  <si>
+    <t>20134770</t>
+  </si>
+  <si>
+    <t>DOVE R/ON SRM+CLG 50</t>
+  </si>
+  <si>
+    <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>10027167</t>
+  </si>
+  <si>
+    <t>DOVE DEO CMP.CARE 40</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10037405</t>
+  </si>
+  <si>
+    <t>C/LANG KAYU PUTIH 30</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RT,(E-6B)</t>
+  </si>
+  <si>
+    <t>20128919</t>
+  </si>
+  <si>
+    <t>MOLTO SFTNR PURE 550</t>
+  </si>
+  <si>
     <t>PT</t>
   </si>
   <si>
-    <t>20031238</t>
-  </si>
-  <si>
-    <t>WHISKAS JR MCKRL 80</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20031233</t>
-  </si>
-  <si>
-    <t>WHISKAS CF MAC&amp;SAL80</t>
-  </si>
-  <si>
-    <t>10037405</t>
-  </si>
-  <si>
-    <t>C/LANG KAYU PUTIH 30</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>RT,(E-6B)</t>
-  </si>
-  <si>
-    <t>20134103</t>
-  </si>
-  <si>
-    <t>ATTACK GEL S.CNTA515</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20032250</t>
-  </si>
-  <si>
-    <t>KISPRAY VIOLET PC280</t>
-  </si>
-  <si>
-    <t>RT</t>
+    <t>20129160</t>
+  </si>
+  <si>
+    <t>MOLTO LUXURY PRF 650</t>
   </si>
 </sst>
 </file>
@@ -490,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -534,18 +552,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -554,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -571,113 +589,173 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/TH1MKT.xlsx
+++ b/TH1MKT.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t/>
   </si>
   <si>
-    <t>20087713</t>
-  </si>
-  <si>
-    <t>IDM NDL AYM PDS 90G</t>
+    <t>10004394</t>
+  </si>
+  <si>
+    <t>MENTOS FRUIT ROLL 37</t>
   </si>
   <si>
     <t>TH1MKT</t>
@@ -28,94 +28,97 @@
     <t>1</t>
   </si>
   <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>10030201</t>
+  </si>
+  <si>
+    <t>MENTOS CND ROL AGR37</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20137700</t>
+  </si>
+  <si>
+    <t>MAYASI CSHW KTCY 35G</t>
+  </si>
+  <si>
+    <t>20103453</t>
+  </si>
+  <si>
+    <t>SAORI SAUS LD HTM133</t>
+  </si>
+  <si>
+    <t>20009966</t>
+  </si>
+  <si>
+    <t>SAORI SAUS TIRAM 133</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20009973</t>
+  </si>
+  <si>
+    <t>SAORI SAUS TERIYK135</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20139596</t>
+  </si>
+  <si>
+    <t>PPSODNT SENSI EXP 60</t>
+  </si>
+  <si>
     <t>PT,(E-1B)</t>
   </si>
   <si>
-    <t>20113338</t>
-  </si>
-  <si>
-    <t>EMINA CHSE MILD 160G</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>10040202</t>
+  </si>
+  <si>
+    <t>SOFFELL A.NYMK K/J60</t>
+  </si>
+  <si>
+    <t>RT,(E-3.5B)</t>
+  </si>
+  <si>
+    <t>20134253</t>
+  </si>
+  <si>
+    <t>SO FRSH HOT 2X10ML</t>
+  </si>
+  <si>
+    <t>20040313</t>
+  </si>
+  <si>
+    <t>MY BABY TELON PLUS30</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>RT,(E-3B)</t>
   </si>
   <si>
-    <t>20135049</t>
-  </si>
-  <si>
-    <t>EMINA CHS SLC CD 10S</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20138466</t>
-  </si>
-  <si>
-    <t>NABATI AHH STRW 30G</t>
-  </si>
-  <si>
-    <t>20140016</t>
-  </si>
-  <si>
-    <t>M&amp;M'S CHO PEANUT 37G</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20113135</t>
-  </si>
-  <si>
-    <t>AMUNIZER BTL 140ML</t>
-  </si>
-  <si>
-    <t>20134770</t>
-  </si>
-  <si>
-    <t>DOVE R/ON SRM+CLG 50</t>
-  </si>
-  <si>
-    <t>PT,(E-3B)</t>
-  </si>
-  <si>
-    <t>10027167</t>
-  </si>
-  <si>
-    <t>DOVE DEO CMP.CARE 40</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10037405</t>
-  </si>
-  <si>
-    <t>C/LANG KAYU PUTIH 30</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RT,(E-6B)</t>
-  </si>
-  <si>
-    <t>20128919</t>
-  </si>
-  <si>
-    <t>MOLTO SFTNR PURE 550</t>
+    <t>20122879</t>
+  </si>
+  <si>
+    <t>RNSO MLTO KRN STR510</t>
   </si>
   <si>
     <t>PT</t>
   </si>
   <si>
-    <t>20129160</t>
-  </si>
-  <si>
-    <t>MOLTO LUXURY PRF 650</t>
+    <t>20140001</t>
+  </si>
+  <si>
+    <t>RINSO PURE LIQ 510G</t>
   </si>
 </sst>
 </file>
@@ -508,14 +511,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,35 +578,35 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -612,18 +615,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -632,18 +635,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -652,110 +655,130 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TH1MKT.xlsx
+++ b/TH1MKT.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t/>
   </si>
   <si>
-    <t>10004394</t>
-  </si>
-  <si>
-    <t>MENTOS FRUIT ROLL 37</t>
+    <t>20064426</t>
+  </si>
+  <si>
+    <t>TWISTKO JGNG BKR 70G</t>
   </si>
   <si>
     <t>TH1MKT</t>
@@ -31,94 +31,73 @@
     <t>RT,(E-1B)</t>
   </si>
   <si>
-    <t>10030201</t>
-  </si>
-  <si>
-    <t>MENTOS CND ROL AGR37</t>
+    <t>20137884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUPA JELLY FUN MIX </t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>20137700</t>
-  </si>
-  <si>
-    <t>MAYASI CSHW KTCY 35G</t>
-  </si>
-  <si>
-    <t>20103453</t>
-  </si>
-  <si>
-    <t>SAORI SAUS LD HTM133</t>
-  </si>
-  <si>
-    <t>20009966</t>
-  </si>
-  <si>
-    <t>SAORI SAUS TIRAM 133</t>
+    <t>10003922</t>
+  </si>
+  <si>
+    <t>ABC KP&amp;GULA+SS.10X30</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20138893</t>
+  </si>
+  <si>
+    <t>AMO DRMY STRAW 180ML</t>
+  </si>
+  <si>
+    <t>20025825</t>
+  </si>
+  <si>
+    <t>PRONAS KORNETKU 200G</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>20009973</t>
-  </si>
-  <si>
-    <t>SAORI SAUS TERIYK135</t>
+    <t>10002350</t>
+  </si>
+  <si>
+    <t>ABC KCP MANIS TGG275</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>10037208</t>
+  </si>
+  <si>
+    <t>CLOSE UP MT.FRSH 110</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>20139596</t>
-  </si>
-  <si>
-    <t>PPSODNT SENSI EXP 60</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>10040202</t>
-  </si>
-  <si>
-    <t>SOFFELL A.NYMK K/J60</t>
-  </si>
-  <si>
-    <t>RT,(E-3.5B)</t>
-  </si>
-  <si>
-    <t>20134253</t>
-  </si>
-  <si>
-    <t>SO FRSH HOT 2X10ML</t>
-  </si>
-  <si>
-    <t>20040313</t>
-  </si>
-  <si>
-    <t>MY BABY TELON PLUS30</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20122879</t>
-  </si>
-  <si>
-    <t>RNSO MLTO KRN STR510</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>20140001</t>
-  </si>
-  <si>
-    <t>RINSO PURE LIQ 510G</t>
+    <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>10037405</t>
+  </si>
+  <si>
+    <t>C/LANG KAYU PUTIH 30</t>
+  </si>
+  <si>
+    <t>RT,(E-6B)</t>
+  </si>
+  <si>
+    <t>20114432</t>
+  </si>
+  <si>
+    <t>ANTANGIN HTBTSDA 5'S</t>
   </si>
 </sst>
 </file>
@@ -511,14 +490,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,15 +577,15 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -623,162 +602,102 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
